--- a/xlsx/月刊_intext.xlsx
+++ b/xlsx/月刊_intext.xlsx
@@ -29,7 +29,7 @@
     <t>连续出版物</t>
   </si>
   <si>
-    <t>政策_政策_美國_月刊</t>
+    <t>政策_政策_美国_月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A6%E7%B1%8D</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B7</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>週刊</t>
+    <t>周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%88%8A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%A4%BA</t>
   </si>
   <si>
-    <t>標示</t>
+    <t>标示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%BE%85</t>
   </si>
   <si>
-    <t>薩羅</t>
+    <t>萨罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E6%9D%82%E5%BF%97</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BA%BA%E8%AA%8C</t>
   </si>
   <si>
-    <t>同人誌</t>
+    <t>同人志</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%AE%9F%E8%A9%B1%E8%AA%8C</t>
   </si>
   <si>
-    <t>ja-実話誌</t>
+    <t>ja-実话志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>科學雜誌</t>
+    <t>科学杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>漫畫雜誌</t>
+    <t>漫画杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>動畫雜誌</t>
+    <t>动画杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A0%B1%E8%AA%8C</t>
   </si>
   <si>
-    <t>情報誌</t>
+    <t>情报志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%9C%E8%AA%8C%E5%8F%8A%E6%9C%9F%E5%88%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>台灣雜誌及期刊列表</t>
+    <t>台湾杂志及期刊列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%91%91</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E5%BF%97</t>
